--- a/[5] Tester Results/TEST_SEX_RANGE_ACROSS_DATES_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_SEX_RANGE_ACROSS_DATES_PARAMETRIC.xlsx
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.05415825836631</v>
+        <v>14.33953576494668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001001429213181154</v>
+        <v>8.730298771957237e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7580917449007735</v>
+        <v>2.227287868994016</v>
       </c>
       <c r="E2" t="n">
-        <v>2.41049025316563</v>
+        <v>3.150267646000978</v>
       </c>
       <c r="F2" t="n">
-        <v>3859.329584967325</v>
+        <v>1564.353137254902</v>
       </c>
       <c r="G2" t="n">
-        <v>5821.583169934645</v>
+        <v>2156.610954248366</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.27149675876425</v>
+        <v>14.04110456128453</v>
       </c>
       <c r="C3" t="n">
-        <v>3.329098377236907e-12</v>
+        <v>1.165662660639093e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6524266877233</v>
+        <v>2.158658948005941</v>
       </c>
       <c r="E3" t="n">
-        <v>3.16348584929807</v>
+        <v>3.164027857830015</v>
       </c>
       <c r="F3" t="n">
-        <v>60.251454248366</v>
+        <v>27.27579681348978</v>
       </c>
       <c r="G3" t="n">
-        <v>83.49800000000003</v>
+        <v>43.97995259121718</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -557,22 +557,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.1698616727933</v>
+        <v>13.39482078834618</v>
       </c>
       <c r="C4" t="n">
-        <v>7.401893628701818e-12</v>
+        <v>9.704334422911011e-17</v>
       </c>
       <c r="D4" t="n">
-        <v>1.611967824473462</v>
+        <v>2.13578631261908</v>
       </c>
       <c r="E4" t="n">
-        <v>3.164158607904077</v>
+        <v>3.010784512567843</v>
       </c>
       <c r="F4" t="n">
-        <v>55.37541830065359</v>
+        <v>25.03027655123982</v>
       </c>
       <c r="G4" t="n">
-        <v>75.64086601307189</v>
+        <v>40.15002930096622</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.806823575249446</v>
+        <v>13.94762149866655</v>
       </c>
       <c r="C5" t="n">
-        <v>5.823404310458548e-09</v>
+        <v>1.52109581772308e-15</v>
       </c>
       <c r="D5" t="n">
-        <v>1.275232018263966</v>
+        <v>2.026611706199912</v>
       </c>
       <c r="E5" t="n">
-        <v>2.902096826554726</v>
+        <v>3.277834284025508</v>
       </c>
       <c r="F5" t="n">
-        <v>20.37502941176472</v>
+        <v>10.00032679738562</v>
       </c>
       <c r="G5" t="n">
-        <v>27.96142810457515</v>
+        <v>14.89074836601307</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1696316604658494</v>
+        <v>-8.431116872347452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09696544540268816</v>
+        <v>3.752134315420057e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4785931649966358</v>
+        <v>-1.746599664086981</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7980781216082817</v>
+        <v>-1.6213375298332</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.05424836601307</v>
+        <v>-5.943790849673203</v>
       </c>
       <c r="G6" t="n">
-        <v>1.943790849673203</v>
+        <v>-5.376470588235293</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -662,22 +662,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6477706862506883</v>
+        <v>-8.351671381451419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1381588903554755</v>
+        <v>6.624719125704959e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.656719518021486</v>
+        <v>-1.751103708576005</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4452318070552199</v>
+        <v>-1.604614326529424</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.343137254901965</v>
+        <v>-5.951633986928098</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9496732026143775</v>
+        <v>-5.28300653594771</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.20744819871873</v>
+        <v>14.26086661895486</v>
       </c>
       <c r="C8" t="n">
-        <v>3.909782572129127e-12</v>
+        <v>5.560052749979929e-17</v>
       </c>
       <c r="D8" t="n">
-        <v>1.64402548399572</v>
+        <v>2.206458079430981</v>
       </c>
       <c r="E8" t="n">
-        <v>3.140297638993201</v>
+        <v>3.187150220469878</v>
       </c>
       <c r="F8" t="n">
-        <v>61.05522875816992</v>
+        <v>28.69379084967321</v>
       </c>
       <c r="G8" t="n">
-        <v>83.98137254901961</v>
+        <v>46.30980392156863</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.66507922858089</v>
+        <v>0.598420960574841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1503763721573956</v>
+        <v>0.5305981963788208</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9584686360787898</v>
+        <v>-0.0754980423611418</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2269991435113327</v>
+        <v>0.389167214466121</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9941176470588218</v>
+        <v>-0.007843137254901933</v>
       </c>
       <c r="G9" t="n">
-        <v>0.258823529411762</v>
+        <v>0.09346405228758181</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -767,22 +767,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.071494900126599</v>
+        <v>4.88744422811322</v>
       </c>
       <c r="C10" t="n">
-        <v>1.423227213862336e-07</v>
+        <v>0.1764912826929073</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.339418259141515</v>
+        <v>0.1253968458035001</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.112029474949199</v>
+        <v>1.513461984465573</v>
       </c>
       <c r="F10" t="n">
-        <v>-48.92784967320262</v>
+        <v>8.106643790849681</v>
       </c>
       <c r="G10" t="n">
-        <v>-20.76592810457518</v>
+        <v>15179.96907843137</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>

--- a/[5] Tester Results/TEST_SEX_RANGE_ACROSS_DATES_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_SEX_RANGE_ACROSS_DATES_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,26 +623,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.431116872347452</v>
+        <v>14.26086661895486</v>
       </c>
       <c r="C6" t="n">
-        <v>3.752134315420057e-12</v>
+        <v>5.560052749979929e-17</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.746599664086981</v>
+        <v>2.206458079430981</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.6213375298332</v>
+        <v>3.187150220469878</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.943790849673203</v>
+        <v>28.69379084967321</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.376470588235293</v>
+        <v>46.30980392156863</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -693,26 +693,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.26086661895486</v>
+        <v>4.88744422811322</v>
       </c>
       <c r="C8" t="n">
-        <v>5.560052749979929e-17</v>
+        <v>0.1764912826929073</v>
       </c>
       <c r="D8" t="n">
-        <v>2.206458079430981</v>
+        <v>0.1253968458035001</v>
       </c>
       <c r="E8" t="n">
-        <v>3.187150220469878</v>
+        <v>1.513461984465573</v>
       </c>
       <c r="F8" t="n">
-        <v>28.69379084967321</v>
+        <v>8.106643790849681</v>
       </c>
       <c r="G8" t="n">
-        <v>46.30980392156863</v>
+        <v>15179.96907843137</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -720,76 +720,6 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.598420960574841</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5305981963788208</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.0754980423611418</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.389167214466121</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.007843137254901933</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.09346405228758181</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ttest_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.88744422811322</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1764912826929073</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1253968458035001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.513461984465573</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8.106643790849681</v>
-      </c>
-      <c r="G10" t="n">
-        <v>15179.96907843137</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>ttest_ind</t>
         </is>
